--- a/data/trans_dic/P54_A_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>11,75; 33,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,99; 6,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,47; 4,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>12,54; 23,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,33; 6,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,0; 3,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>13,79; 25,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,51; 4,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,52; 3,05</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>8,1; 20,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,88; 8,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>12,45; 25,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,51; 4,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>1,49; 9,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>12,14; 20,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,06; 5,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,02; 5,53</t>
         </is>
       </c>
     </row>
@@ -852,42 +853,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24,53%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>26,6%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>10,1; 48,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0,0; 65,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>14,87; 41,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>0,0; 13,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>15,54; 37,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>0,0; 43,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>12,63; 24,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,89; 14,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,39; 3,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>15,15; 23,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,28; 4,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,86; 4,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>15,36; 22,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,07; 8,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,86; 3,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir desempleo o ya le ha ocurrido (tasa de respuesta: 96,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>61149</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11203</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6073</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>67063</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16440</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4382</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>128212</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27643</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10455</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>39680; 113178</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4249; 27013</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1665; 16681</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46432; 87658</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6739; 34554</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15261</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97657; 183865</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14090; 46187</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3935; 23104</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39412</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11370</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2851</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>57192</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7168</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13526</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96604</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18538</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16377</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23231; 57800</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3115; 28712</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13144</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39583; 80750</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2119; 19323</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4885; 31146</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73384; 125805</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8160; 39829</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6506; 35089</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>16513</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24322</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21398</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2543</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37911</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26865</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6374; 30873</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 64478</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11960; 33757</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12873</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22307; 54223</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 85650</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>117073</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>46895</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8924</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>145654</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26152</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17907</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>262727</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>73046</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26831</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>86852; 169743</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16686; 127875</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2852; 25363</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>116505; 180380</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13052; 45208</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7039; 35358</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>223774; 324304</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39315; 156996</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13344; 47746</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>